--- a/EFM_shiny.xlsx
+++ b/EFM_shiny.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="7650" tabRatio="890" activeTab="2"/>
+    <workbookView windowWidth="19635" windowHeight="7650" tabRatio="890" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="contents" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="148">
   <si>
     <t>name</t>
   </si>
@@ -70,15 +70,6 @@
   </si>
   <si>
     <t>book-open-reader</t>
-  </si>
-  <si>
-    <t>Support Channel</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>question</t>
   </si>
   <si>
     <t>Surveys</t>
@@ -509,7 +500,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -539,24 +530,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF1F1F1F"/>
       <name val="Roboto"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1012,19 +989,28 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1033,131 +1019,122 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1172,7 +1149,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1521,15 +1497,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="1" max="1" width="25.8571428571429" customWidth="1"/>
     <col min="2" max="2" width="16.1428571428571" customWidth="1"/>
     <col min="3" max="3" width="16.2857142857143" customWidth="1"/>
     <col min="4" max="4" width="20.4285714285714" customWidth="1"/>
@@ -1592,45 +1568,31 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="5" t="s">
+      <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
+      <c r="B5" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="B6" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1663,33 +1625,33 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -1697,16 +1659,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -1714,16 +1676,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -1731,16 +1693,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -1748,16 +1710,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -1765,16 +1727,16 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -1782,16 +1744,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -1799,16 +1761,16 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1816,16 +1778,16 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1833,16 +1795,16 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -1850,16 +1812,16 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G12">
         <v>5</v>
@@ -1867,16 +1829,16 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -1907,33 +1869,33 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -1941,16 +1903,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -1958,16 +1920,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -1975,16 +1937,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -1992,16 +1954,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -2009,16 +1971,16 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -2026,16 +1988,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -2043,16 +2005,16 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -2060,16 +2022,16 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -2077,16 +2039,16 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -2094,16 +2056,16 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G12">
         <v>5</v>
@@ -2111,16 +2073,16 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -2151,33 +2113,33 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -2185,16 +2147,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -2202,16 +2164,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -2219,16 +2181,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -2236,16 +2198,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -2253,16 +2215,16 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -2270,16 +2232,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -2287,16 +2249,16 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -2304,16 +2266,16 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -2321,16 +2283,16 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -2338,16 +2300,16 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G12">
         <v>5</v>
@@ -2355,16 +2317,16 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -2395,33 +2357,33 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -2429,16 +2391,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -2446,16 +2408,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -2463,16 +2425,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -2480,16 +2442,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -2497,16 +2459,16 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -2514,16 +2476,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -2531,16 +2493,16 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -2548,16 +2510,16 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -2565,16 +2527,16 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -2582,16 +2544,16 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G12">
         <v>5</v>
@@ -2599,16 +2561,16 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -2644,13 +2606,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2682,77 +2644,77 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F3" t="s">
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -2767,8 +2729,8 @@
   <sheetPr/>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="5"/>
@@ -2789,52 +2751,49 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
         <v>24</v>
-      </c>
-      <c r="D1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2"/>
+        <v>26</v>
+      </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
         <v>28</v>
       </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3"/>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4"/>
+        <v>30</v>
+      </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2848,7 +2807,7 @@
   <sheetPr/>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -2871,33 +2830,33 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
         <v>36</v>
-      </c>
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" t="s">
-        <v>39</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -2905,16 +2864,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
         <v>40</v>
-      </c>
-      <c r="B3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" t="s">
-        <v>43</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -2922,16 +2881,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
         <v>44</v>
-      </c>
-      <c r="B4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" t="s">
-        <v>47</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -2939,16 +2898,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s">
         <v>48</v>
-      </c>
-      <c r="B5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" t="s">
-        <v>51</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -2956,16 +2915,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -3084,46 +3043,46 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/EFM_shiny.xlsx
+++ b/EFM_shiny.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="7650" tabRatio="971" firstSheet="2" activeTab="5"/>
+    <workbookView windowWidth="19635" windowHeight="7650" tabRatio="971" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="contents" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="70">
   <si>
     <t>name</t>
   </si>
@@ -110,9 +110,6 @@
     <t>row</t>
   </si>
   <si>
-    <t>data</t>
-  </si>
-  <si>
     <t>box</t>
   </si>
   <si>
@@ -188,6 +185,9 @@
   </si>
   <si>
     <t>rp-contact-field._server_sync_latest</t>
+  </si>
+  <si>
+    <t>data</t>
   </si>
   <si>
     <t>text = "Button Click History", colour = "blue"</t>
@@ -878,13 +878,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1308,7 +1307,7 @@
       <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C5" t="s">
@@ -1386,13 +1385,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="18.5714285714286" customWidth="1"/>
     <col min="2" max="2" width="6.57142857142857" customWidth="1"/>
@@ -1404,7 +1403,7 @@
     <col min="8" max="8" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:9">
+    <row r="1" s="1" customFormat="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1429,25 +1428,22 @@
       <c r="H1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
         <v>28</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" t="s">
         <v>30</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>31</v>
-      </c>
-      <c r="E2" t="s">
-        <v>32</v>
       </c>
       <c r="F2" s="3"/>
       <c r="H2">
@@ -1456,19 +1452,19 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>34</v>
-      </c>
-      <c r="E3" t="s">
-        <v>35</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -1476,19 +1472,19 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>37</v>
-      </c>
-      <c r="E4" t="s">
-        <v>38</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -1496,19 +1492,19 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>40</v>
-      </c>
-      <c r="E5" t="s">
-        <v>41</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -1516,19 +1512,19 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>43</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -1536,19 +1532,19 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>46</v>
-      </c>
-      <c r="E7" t="s">
-        <v>47</v>
       </c>
       <c r="H7">
         <v>3</v>
@@ -1556,19 +1552,19 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>49</v>
-      </c>
-      <c r="E8" t="s">
-        <v>50</v>
       </c>
       <c r="H8">
         <v>4</v>
@@ -1586,7 +1582,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
@@ -1627,18 +1623,18 @@
         <v>26</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
         <v>28</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="D2" t="s">
         <v>51</v>
@@ -1653,13 +1649,13 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
         <v>53</v>
@@ -1673,13 +1669,13 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
         <v>55</v>
@@ -1702,8 +1698,8 @@
   <sheetPr/>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I1" sqref="I$1:I$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4"/>
@@ -1744,18 +1740,18 @@
         <v>26</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
         <v>28</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="D2" t="s">
         <v>51</v>
@@ -1770,13 +1766,13 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
         <v>58</v>
@@ -1790,13 +1786,13 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
         <v>60</v>
@@ -1810,13 +1806,13 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
         <v>62</v>
@@ -1839,7 +1835,7 @@
   <sheetPr/>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -1885,7 +1881,6 @@
       <c r="A3" t="s">
         <v>65</v>
       </c>
-      <c r="B3"/>
       <c r="C3" t="s">
         <v>66</v>
       </c>

--- a/EFM_shiny.xlsx
+++ b/EFM_shiny.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="7650" tabRatio="971" firstSheet="2" activeTab="2"/>
+    <workbookView windowWidth="19635" windowHeight="7650" tabRatio="971" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="contents" sheetId="2" r:id="rId1"/>
@@ -148,7 +148,7 @@
     <t>text = "App Last Launch", colour = "blue"</t>
   </si>
   <si>
-    <t>app_last_launch</t>
+    <t>rp-contact-field.app_last_launch</t>
   </si>
   <si>
     <t>box4</t>
@@ -157,7 +157,7 @@
     <t>text = "App Launch Count", colour = "blue"</t>
   </si>
   <si>
-    <t>app_launch_count</t>
+    <t>rp-contact-field.app_launch_count</t>
   </si>
   <si>
     <t>box5</t>
@@ -1387,8 +1387,8 @@
   <sheetPr/>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="7"/>

--- a/EFM_shiny.xlsx
+++ b/EFM_shiny.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="7650" tabRatio="971" activeTab="2"/>
+    <workbookView windowWidth="20490" windowHeight="7650" tabRatio="971" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="contents" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="91">
   <si>
     <t>name</t>
   </si>
@@ -66,17 +66,6 @@
     <t>Download</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="Roboto"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Download</t>
-    </r>
-  </si>
-  <si>
     <t>download</t>
   </si>
   <si>
@@ -95,10 +84,46 @@
     <t>value_box</t>
   </si>
   <si>
-    <t>myvaluebox1</t>
-  </si>
-  <si>
-    <t>text = "Enrolled parents", colour = "aqua", icon = "clipboard"</t>
+    <t>text = "Enrolled parents", colour = "yellow", icon = "user"</t>
+  </si>
+  <si>
+    <t>app_user_id</t>
+  </si>
+  <si>
+    <t>text = "Last Sync within 7 Days ago", colour = "aqua", icon = "clock"</t>
+  </si>
+  <si>
+    <t>synced_7_days</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>text = "Last Sync Between 7  -  14 Days ago", colour = "purple", icon = "clock"</t>
+  </si>
+  <si>
+    <t>synced_7_14_days</t>
+  </si>
+  <si>
+    <t>text = "Last Sync Between 14  -  30 Days ago", colour = "green", icon = "clock"</t>
+  </si>
+  <si>
+    <t>synced_14_30_days</t>
+  </si>
+  <si>
+    <t>text = "Last Sync more than 30 days ago", colour = "orange", icon = "clock"</t>
+  </si>
+  <si>
+    <t>synced_more_than_30_days</t>
+  </si>
+  <si>
+    <t>table_manip</t>
+  </si>
+  <si>
+    <t>data_manip</t>
+  </si>
+  <si>
+    <t>graph_manip</t>
   </si>
   <si>
     <t>filter_variable</t>
@@ -111,6 +136,72 @@
   </si>
   <si>
     <t>box</t>
+  </si>
+  <si>
+    <t>bar_freq</t>
+  </si>
+  <si>
+    <t>text = "App Version", colour = "blue"</t>
+  </si>
+  <si>
+    <t>labs(x = "App Version")</t>
+  </si>
+  <si>
+    <t>rp-contact-field._app_version</t>
+  </si>
+  <si>
+    <t>text = "App Language", colour = "blue"</t>
+  </si>
+  <si>
+    <t>labs(x = "Language", y = "Count")</t>
+  </si>
+  <si>
+    <t>rp-contact-field._app_language</t>
+  </si>
+  <si>
+    <t>specify_plot</t>
+  </si>
+  <si>
+    <t>text = "App Last Launch", colour = "blue"</t>
+  </si>
+  <si>
+    <t>%&gt;% filter(!is.na(app_last_launch)) %&gt;% group_by(app_last_launch) %&gt;% summarise(frequency = n())</t>
+  </si>
+  <si>
+    <t>geom_line(aes(x = app_last_launch, y = frequency)) + geom_point(aes(x = app_last_launch, y = frequency)) + labs(x = "Date", y = "Frequency", title = "Frequency of Values by Date")</t>
+  </si>
+  <si>
+    <t>text = "App Launch Count", colour = "blue"</t>
+  </si>
+  <si>
+    <t>app_launch_count</t>
+  </si>
+  <si>
+    <t>text = "App Launch History", colour = "blue"</t>
+  </si>
+  <si>
+    <t>labs(x = "Launch History", y = "Count")</t>
+  </si>
+  <si>
+    <t>rp-contact-field.app_launch_history</t>
+  </si>
+  <si>
+    <t>text = "Max Days Btwn App Launches", colour = "blue"</t>
+  </si>
+  <si>
+    <t>labs(x = "Maximum Days Between App launches", y = "Count")</t>
+  </si>
+  <si>
+    <t>rp-contact-field.max_days_between_app_launches</t>
+  </si>
+  <si>
+    <t>text = "App Last Synched", colour = "blue"</t>
+  </si>
+  <si>
+    <t>labs(x = "App Last Sync", y = "Count")</t>
+  </si>
+  <si>
+    <t>rp-contact-field._server_sync_latest</t>
   </si>
   <si>
     <t>box1</t>
@@ -127,108 +218,72 @@
     </r>
   </si>
   <si>
-    <t>text = "App Version", colour = "blue"</t>
-  </si>
-  <si>
-    <t>rp-contact-field._app_version</t>
+    <t>text = "Button Click History", colour = "blue"</t>
+  </si>
+  <si>
+    <t>labs(x = "Button Click History Count", y = "Count")</t>
+  </si>
+  <si>
+    <t>rp-contact-field.activities_button_click_history_count</t>
   </si>
   <si>
     <t>box2</t>
   </si>
   <si>
-    <t>text = "App Language", colour = "blue"</t>
-  </si>
-  <si>
-    <t>rp-contact-field._app_language</t>
+    <t>text = "Current Chapter", colour = "blue"</t>
+  </si>
+  <si>
+    <t>labs(x = "Current Chapter")</t>
+  </si>
+  <si>
+    <t>rp-contact-field.current_chapter</t>
   </si>
   <si>
     <t>box3</t>
   </si>
   <si>
-    <t>text = "App Last Launch", colour = "blue"</t>
-  </si>
-  <si>
-    <t>rp-contact-field.app_last_launch</t>
+    <t>text = "Accessed Activities", colour = "blue"</t>
+  </si>
+  <si>
+    <t>labs(x = "Accessed Activities")</t>
+  </si>
+  <si>
+    <t>rp-contact-field.has_accessed_activities</t>
+  </si>
+  <si>
+    <t>rp-contact-field.storybooks_button_click_history_count</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>text = "Storybook Button Click History", colour = "blue"</t>
+  </si>
+  <si>
+    <t>rp-contact-field.efm_sb_Cat_And_Dog_And_The_Ball_book_click_history</t>
+  </si>
+  <si>
+    <t>text = "Current Book", colour = "blue"</t>
+  </si>
+  <si>
+    <t>rp-contact-field.current_book</t>
   </si>
   <si>
     <t>box4</t>
   </si>
   <si>
-    <t>text = "App Launch Count", colour = "blue"</t>
-  </si>
-  <si>
-    <t>rp-contact-field.app_launch_count</t>
-  </si>
-  <si>
-    <t>box5</t>
-  </si>
-  <si>
-    <t>text = "App Launch History", colour = "blue"</t>
-  </si>
-  <si>
-    <t>rp-contact-field.app_launch_history</t>
-  </si>
-  <si>
-    <t>box6</t>
-  </si>
-  <si>
-    <t>text = "Max Days Btwn  App Launches", colour = "blue"</t>
-  </si>
-  <si>
-    <t>rp-contact-field.max_days_between_app_launches</t>
-  </si>
-  <si>
-    <t>box7</t>
-  </si>
-  <si>
-    <t>text = "App Last Synched", colour = "blue"</t>
-  </si>
-  <si>
-    <t>rp-contact-field._server_sync_latest</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>text = "Button Click History", colour = "blue"</t>
-  </si>
-  <si>
-    <t>rp-contact-field.activities_button_click_history</t>
-  </si>
-  <si>
-    <t>text = "Current Chapter", colour = "blue"</t>
-  </si>
-  <si>
-    <t>rp-contact-field.current_chapter</t>
-  </si>
-  <si>
-    <t>text = "Accessed Activities", colour = "blue"</t>
-  </si>
-  <si>
-    <t>rp-contact-field.has_accessed_activities</t>
-  </si>
-  <si>
-    <t>rp-contact-field.storybooks_button_click_history</t>
-  </si>
-  <si>
-    <t>text = "Storybook Button Click History", colour = "blue"</t>
-  </si>
-  <si>
-    <t>rp-contact-field.efm_sb_Cat_And_Dog_And_The_Ball_book_click_history</t>
-  </si>
-  <si>
-    <t>text = "Current Book", colour = "blue"</t>
-  </si>
-  <si>
-    <t>rp-contact-field.current_book</t>
-  </si>
-  <si>
     <t>text = "Accessed  Storybooks", colour = "blue"</t>
   </si>
   <si>
     <t>rp-contact-field.has_accessed_storybooks</t>
   </si>
   <si>
+    <t>Credentials</t>
+  </si>
+  <si>
+    <t>credentials</t>
+  </si>
+  <si>
     <t>Download label</t>
   </si>
   <si>
@@ -241,10 +296,10 @@
     <t>Data</t>
   </si>
   <si>
-    <t>Demographics data</t>
-  </si>
-  <si>
-    <t>app_data_df</t>
+    <t>EFM App Data</t>
+  </si>
+  <si>
+    <t>plhdata_org</t>
   </si>
 </sst>
 </file>
@@ -257,7 +312,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,6 +339,18 @@
       <color rgb="FF1F1F1F"/>
       <name val="Roboto"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Lucida Console"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -748,143 +815,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1236,15 +1305,15 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="25.8571428571429" customWidth="1"/>
-    <col min="2" max="2" width="16.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="16.2857142857143" customWidth="1"/>
-    <col min="4" max="4" width="20.4285714285714" customWidth="1"/>
+    <col min="1" max="1" width="25.8190476190476" customWidth="1"/>
+    <col min="2" max="2" width="16.1809523809524" customWidth="1"/>
+    <col min="3" max="3" width="16.2666666666667" customWidth="1"/>
+    <col min="4" max="4" width="20.4571428571429" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1307,14 +1376,14 @@
       <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1326,28 +1395,27 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="10.8571428571429" customWidth="1"/>
-    <col min="2" max="2" width="13.8571428571429" customWidth="1"/>
-    <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="78.1428571428571" customWidth="1"/>
-    <col min="5" max="5" width="20.7142857142857" customWidth="1"/>
-    <col min="6" max="6" width="15.1428571428571" customWidth="1"/>
+    <col min="1" max="1" width="10.8190476190476" customWidth="1"/>
+    <col min="2" max="2" width="13.8190476190476" customWidth="1"/>
+    <col min="3" max="3" width="78.1809523809524" customWidth="1"/>
+    <col min="4" max="4" width="36.2666666666667" customWidth="1"/>
+    <col min="5" max="5" width="15.1809523809524" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
         <v>17</v>
@@ -1358,22 +1426,87 @@
       <c r="E1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
       </c>
       <c r="D2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1385,188 +1518,192 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C4" sqref="$A4:$XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="18.5714285714286" customWidth="1"/>
-    <col min="2" max="2" width="6.57142857142857" customWidth="1"/>
-    <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="53.5714285714286" customWidth="1"/>
-    <col min="5" max="5" width="51.1428571428571" customWidth="1"/>
-    <col min="6" max="6" width="12.9333333333333" customWidth="1"/>
-    <col min="7" max="7" width="15.1428571428571" customWidth="1"/>
-    <col min="8" max="8" width="5" customWidth="1"/>
+    <col min="1" max="1" width="5.57142857142857" customWidth="1"/>
+    <col min="2" max="2" width="12.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="53.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="101.285714285714" customWidth="1"/>
+    <col min="6" max="6" width="177.714285714286" customWidth="1"/>
+    <col min="7" max="7" width="51.4285714285714" customWidth="1"/>
+    <col min="8" max="8" width="14.7142857142857" customWidth="1"/>
+    <col min="9" max="9" width="12.1428571428571" customWidth="1"/>
+    <col min="10" max="10" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:8">
+    <row r="1" s="1" customFormat="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="H2">
+        <v>38</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3">
+        <v>38</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4">
+        <v>48</v>
+      </c>
+      <c r="F4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5">
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6">
+        <v>38</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8">
         <v>4</v>
       </c>
     </row>
@@ -1579,25 +1716,28 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="18.5714285714286" customWidth="1"/>
-    <col min="2" max="2" width="6.57142857142857" customWidth="1"/>
+    <col min="1" max="1" width="18.5428571428571" customWidth="1"/>
+    <col min="2" max="2" width="6.54285714285714" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="53.5714285714286" customWidth="1"/>
-    <col min="5" max="5" width="51.1428571428571" customWidth="1"/>
-    <col min="6" max="6" width="12.9333333333333" customWidth="1"/>
-    <col min="7" max="7" width="15.1428571428571" customWidth="1"/>
-    <col min="8" max="8" width="5" customWidth="1"/>
+    <col min="4" max="4" width="53.5428571428571" customWidth="1"/>
+    <col min="5" max="5" width="15.7142857142857" customWidth="1"/>
+    <col min="6" max="6" width="30.4285714285714" customWidth="1"/>
+    <col min="7" max="7" width="49.4285714285714" customWidth="1"/>
+    <col min="8" max="8" width="51.1809523809524" customWidth="1"/>
+    <col min="9" max="9" width="12.9047619047619" customWidth="1"/>
+    <col min="10" max="10" width="15.1809523809524" customWidth="1"/>
+    <col min="11" max="11" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:9">
+    <row r="1" s="1" customFormat="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1605,86 +1745,101 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="H2">
+        <v>63</v>
+      </c>
+      <c r="G2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="K2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" t="s">
+        <v>73</v>
+      </c>
+      <c r="K4">
         <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1696,25 +1851,25 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I1" sqref="I$1:I$1048576"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="18.5714285714286" customWidth="1"/>
+    <col min="1" max="1" width="5.57142857142857" customWidth="1"/>
     <col min="2" max="2" width="6.57142857142857" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="53.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="54.5714285714286" customWidth="1"/>
     <col min="5" max="5" width="73" customWidth="1"/>
-    <col min="6" max="6" width="12.9333333333333" customWidth="1"/>
-    <col min="7" max="7" width="15.1428571428571" customWidth="1"/>
+    <col min="6" max="6" width="14.7142857142857" customWidth="1"/>
+    <col min="7" max="7" width="12.1428571428571" customWidth="1"/>
     <col min="8" max="8" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:9">
+    <row r="1" s="1" customFormat="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1722,42 +1877,39 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="F2" s="3"/>
       <c r="H2">
@@ -1766,19 +1918,19 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -1786,19 +1938,19 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -1806,19 +1958,19 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -1833,23 +1985,20 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="16.1428571428571" customWidth="1"/>
-    <col min="2" max="2" width="19.4285714285714" customWidth="1"/>
-    <col min="3" max="3" width="12.8571428571429" customWidth="1"/>
-    <col min="4" max="4" width="15.1428571428571" customWidth="1"/>
-    <col min="5" max="5" width="8.71428571428571" customWidth="1"/>
-    <col min="6" max="6" width="15.1428571428571" customWidth="1"/>
+    <col min="1" max="1" width="16.1809523809524" customWidth="1"/>
+    <col min="2" max="2" width="19.4571428571429" customWidth="1"/>
+    <col min="3" max="3" width="12.8190476190476" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1857,43 +2006,42 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/EFM_shiny.xlsx
+++ b/EFM_shiny.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7650" tabRatio="971" firstSheet="1" activeTab="3"/>
+    <workbookView windowWidth="20490" windowHeight="7650" tabRatio="971" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="contents" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="85">
   <si>
     <t>name</t>
   </si>
@@ -175,15 +175,6 @@
   </si>
   <si>
     <t>app_launch_count</t>
-  </si>
-  <si>
-    <t>text = "App Launch History", colour = "blue"</t>
-  </si>
-  <si>
-    <t>labs(x = "Launch History", y = "Count")</t>
-  </si>
-  <si>
-    <t>rp-contact-field.app_launch_history</t>
   </si>
   <si>
     <t>text = "Max Days Btwn App Launches", colour = "blue"</t>
@@ -252,15 +243,6 @@
   </si>
   <si>
     <t>rp-contact-field.storybooks_button_click_history_count</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>text = "Storybook Button Click History", colour = "blue"</t>
-  </si>
-  <si>
-    <t>rp-contact-field.efm_sb_Cat_And_Dog_And_The_Ball_book_click_history</t>
   </si>
   <si>
     <t>text = "Current Book", colour = "blue"</t>
@@ -1398,7 +1380,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="4"/>
@@ -1518,13 +1500,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C4" sqref="$A4:$XFD4"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="5.57142857142857" customWidth="1"/>
     <col min="2" max="2" width="12.8571428571429" customWidth="1"/>
@@ -1610,7 +1592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" ht="21" customHeight="1" spans="1:10">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -1644,14 +1626,14 @@
         <v>51</v>
       </c>
       <c r="J5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>39</v>
       </c>
       <c r="C6" t="s">
@@ -1664,10 +1646,10 @@
         <v>54</v>
       </c>
       <c r="J6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" ht="21" customHeight="1" spans="1:10">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -1684,27 +1666,7 @@
         <v>57</v>
       </c>
       <c r="J7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" t="s">
-        <v>60</v>
-      </c>
-      <c r="J8">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1718,8 +1680,8 @@
   <sheetPr/>
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
@@ -1777,23 +1739,23 @@
         <v>38</v>
       </c>
       <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="H2" t="s">
         <v>62</v>
-      </c>
-      <c r="D2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H2" t="s">
-        <v>65</v>
       </c>
       <c r="I2" s="3"/>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1801,19 +1763,19 @@
         <v>38</v>
       </c>
       <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" t="s">
         <v>66</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H3" t="s">
-        <v>69</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -1824,19 +1786,19 @@
         <v>38</v>
       </c>
       <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" t="s">
         <v>70</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H4" t="s">
-        <v>73</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -1851,13 +1813,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="5.57142857142857" customWidth="1"/>
     <col min="2" max="2" width="6.57142857142857" customWidth="1"/>
@@ -1900,40 +1862,40 @@
         <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F2" s="3"/>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1941,39 +1903,19 @@
         <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" t="s">
-        <v>82</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1987,8 +1929,8 @@
   <sheetPr/>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2"/>
@@ -2011,15 +1953,15 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -2027,21 +1969,21 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/EFM_shiny.xlsx
+++ b/EFM_shiny.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7650" tabRatio="971" firstSheet="1" activeTab="5"/>
+    <workbookView windowWidth="20490" windowHeight="7650" tabRatio="971" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="contents" sheetId="2" r:id="rId1"/>
@@ -165,10 +165,10 @@
     <t>text = "App Last Launch", colour = "blue"</t>
   </si>
   <si>
-    <t>%&gt;% filter(!is.na(app_last_launch)) %&gt;% group_by(app_last_launch) %&gt;% summarise(frequency = n())</t>
-  </si>
-  <si>
-    <t>geom_line(aes(x = app_last_launch, y = frequency)) + geom_point(aes(x = app_last_launch, y = frequency)) + labs(x = "Date", y = "Frequency", title = "Frequency of Values by Date")</t>
+    <t>%&gt;% filter(!is.na(app_last_launch_month)) %&gt;% group_by(app_last_launch_month) %&gt;% summarise(frequency = n())</t>
+  </si>
+  <si>
+    <t>geom_line(aes(x = app_last_launch_month, y = frequency)) + geom_point(aes(x = app_last_launch_month, y = frequency)) + labs(x = "Date", y = "Frequency", title = "Frequency of Values by Date")</t>
   </si>
   <si>
     <t>text = "App Launch Count", colour = "blue"</t>
@@ -1502,8 +1502,8 @@
   <sheetPr/>
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6"/>
@@ -1929,7 +1929,7 @@
   <sheetPr/>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>

--- a/EFM_shiny.xlsx
+++ b/EFM_shiny.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7650" tabRatio="971" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="20490" windowHeight="7620" tabRatio="971" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="contents" sheetId="2" r:id="rId1"/>
@@ -14,12 +14,25 @@
     <sheet name="storybooks" sheetId="17" r:id="rId5"/>
     <sheet name="download" sheetId="20" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="87">
   <si>
     <t>name</t>
   </si>
@@ -168,34 +181,46 @@
     <t>%&gt;% filter(!is.na(app_last_launch_month)) %&gt;% group_by(app_last_launch_month) %&gt;% summarise(frequency = n())</t>
   </si>
   <si>
-    <t>geom_line(aes(x = app_last_launch_month, y = frequency)) + geom_point(aes(x = app_last_launch_month, y = frequency)) + labs(x = "Date", y = "Frequency", title = "Frequency of Values by Date")</t>
+    <t>geom_line(aes(x = app_last_launch_month, y = frequency)) + geom_point(aes(x = app_last_launch_month, y = frequency)) + labs(x = "Month", y = "Frequency", title = "Frequency of Values by Month") + theme_minimal ()</t>
   </si>
   <si>
     <t>text = "App Launch Count", colour = "blue"</t>
   </si>
   <si>
+    <t>none</t>
+  </si>
+  <si>
     <t>app_launch_count</t>
   </si>
   <si>
-    <t>text = "Max Days Btwn App Launches", colour = "blue"</t>
-  </si>
-  <si>
-    <t>labs(x = "Maximum Days Between App launches", y = "Count")</t>
-  </si>
-  <si>
-    <t>rp-contact-field.max_days_between_app_launches</t>
-  </si>
-  <si>
-    <t>text = "App Last Synched", colour = "blue"</t>
-  </si>
-  <si>
-    <t>labs(x = "App Last Sync", y = "Count")</t>
-  </si>
-  <si>
-    <t>rp-contact-field._server_sync_latest</t>
-  </si>
-  <si>
-    <t>box1</t>
+    <t>text = "Days Between App Launches", colour = "blue"</t>
+  </si>
+  <si>
+    <t>labs(x = "Days Between App Launches", y = "Count")</t>
+  </si>
+  <si>
+    <t>days_btwn_app_launches</t>
+  </si>
+  <si>
+    <t>text = "App Last Sync", colour = "blue"</t>
+  </si>
+  <si>
+    <t>%&gt;% group_by(app_last_sync_month) %&gt;% summarise(frequency = n())</t>
+  </si>
+  <si>
+    <t>geom_line(aes(x = app_last_sync_month, y = frequency)) + geom_point(aes(x = app_last_sync_month, y = frequency)) + labs(x = "Month", y = "Frequency", title = "Frequency of Values by Month") + theme_minimal ()</t>
+  </si>
+  <si>
+    <t>text = "Number of Actions per Visit", colour = "blue"</t>
+  </si>
+  <si>
+    <t>geom_density(aes(x = actions_per_visit), fill = "dodgerblue", color = "dodgerblue", alpha = 0.5) + labs(x = "Actions", y = "Density", title = "Actions Per Visit") + theme(legend.position = "none") + theme_minimal ()</t>
+  </si>
+  <si>
+    <t>text = "Average Time on App", colour = "blue"</t>
+  </si>
+  <si>
+    <t>geom_density(aes(x = avg_time_on_app), fill = "dodgerblue", color = "dodgerblue", alpha = 0.5) + labs(x = "Time", y = "Density", title = "Average time on App") + theme(legend.position = "none") + theme_minimal ()</t>
   </si>
   <si>
     <r>
@@ -218,19 +243,13 @@
     <t>rp-contact-field.activities_button_click_history_count</t>
   </si>
   <si>
-    <t>box2</t>
-  </si>
-  <si>
     <t>text = "Current Chapter", colour = "blue"</t>
   </si>
   <si>
     <t>labs(x = "Current Chapter")</t>
   </si>
   <si>
-    <t>rp-contact-field.current_chapter</t>
-  </si>
-  <si>
-    <t>box3</t>
+    <t>current_activities_chapter</t>
   </si>
   <si>
     <t>text = "Accessed Activities", colour = "blue"</t>
@@ -248,13 +267,13 @@
     <t>text = "Current Book", colour = "blue"</t>
   </si>
   <si>
-    <t>rp-contact-field.current_book</t>
-  </si>
-  <si>
-    <t>box4</t>
+    <t>geom_bar(aes(x = current_storybook_accessed)) + labs(x = "Storybook", y = "Count", title = "Current storybooks accessed") + theme(axis.text.x = element_text(angle = 45, vjust = 0.5, hjust = 1)) + theme_minimal ()</t>
   </si>
   <si>
     <t>text = "Accessed  Storybooks", colour = "blue"</t>
+  </si>
+  <si>
+    <t>labs(x = "Accessed Storybooks")</t>
   </si>
   <si>
     <t>rp-contact-field.has_accessed_storybooks</t>
@@ -287,7 +306,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -1500,13 +1519,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.57142857142857" customWidth="1"/>
     <col min="2" max="2" width="12.8571428571429" customWidth="1"/>
@@ -1622,8 +1641,11 @@
       <c r="C5" t="s">
         <v>50</v>
       </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
       <c r="G5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J5">
         <v>3</v>
@@ -1637,35 +1659,81 @@
         <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="D6" t="s">
+        <v>51</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" ht="21" customHeight="1" spans="1:10">
       <c r="A7" t="s">
         <v>38</v>
       </c>
-      <c r="B7" t="s">
-        <v>39</v>
+      <c r="B7" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" t="s">
+        <v>57</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" t="s">
+        <v>62</v>
+      </c>
+      <c r="J9">
         <v>5</v>
       </c>
     </row>
@@ -1678,129 +1746,122 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="18.5428571428571" customWidth="1"/>
-    <col min="2" max="2" width="6.54285714285714" customWidth="1"/>
-    <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="53.5428571428571" customWidth="1"/>
-    <col min="5" max="5" width="15.7142857142857" customWidth="1"/>
-    <col min="6" max="6" width="30.4285714285714" customWidth="1"/>
-    <col min="7" max="7" width="49.4285714285714" customWidth="1"/>
-    <col min="8" max="8" width="51.1809523809524" customWidth="1"/>
-    <col min="9" max="9" width="12.9047619047619" customWidth="1"/>
-    <col min="10" max="10" width="15.1809523809524" customWidth="1"/>
-    <col min="11" max="11" width="5" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="53.5428571428571" customWidth="1"/>
+    <col min="4" max="4" width="15.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="30.4285714285714" customWidth="1"/>
+    <col min="6" max="6" width="49.4285714285714" customWidth="1"/>
+    <col min="7" max="7" width="51.1809523809524" customWidth="1"/>
+    <col min="8" max="8" width="12.9047619047619" customWidth="1"/>
+    <col min="9" max="9" width="15.1809523809524" customWidth="1"/>
+    <col min="10" max="10" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:11">
+    <row r="1" s="1" customFormat="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>38</v>
       </c>
-      <c r="B2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>59</v>
+      <c r="B2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>51</v>
+      </c>
+      <c r="F2" t="s">
+        <v>65</v>
       </c>
       <c r="G2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I2" s="3"/>
-      <c r="K2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>66</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="J2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>38</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>59</v>
+      <c r="C3" t="s">
+        <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>51</v>
+      </c>
+      <c r="F3" t="s">
+        <v>68</v>
       </c>
       <c r="G3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K3">
+        <v>69</v>
+      </c>
+      <c r="J3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>38</v>
       </c>
-      <c r="B4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" t="s">
-        <v>68</v>
+      <c r="B4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" t="s">
+        <v>71</v>
       </c>
       <c r="G4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H4" t="s">
-        <v>70</v>
-      </c>
-      <c r="K4">
+        <v>72</v>
+      </c>
+      <c r="J4">
         <v>1</v>
       </c>
     </row>
@@ -1813,108 +1874,119 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="5.57142857142857" customWidth="1"/>
-    <col min="2" max="2" width="6.57142857142857" customWidth="1"/>
-    <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="54.5714285714286" customWidth="1"/>
-    <col min="5" max="5" width="73" customWidth="1"/>
-    <col min="6" max="6" width="14.7142857142857" customWidth="1"/>
-    <col min="7" max="7" width="12.1428571428571" customWidth="1"/>
-    <col min="8" max="8" width="5" customWidth="1"/>
+    <col min="2" max="2" width="19.2761904761905" customWidth="1"/>
+    <col min="3" max="3" width="54.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="30.8857142857143" customWidth="1"/>
+    <col min="5" max="5" width="28.2095238095238" customWidth="1"/>
+    <col min="6" max="6" width="209.428571428571" customWidth="1"/>
+    <col min="7" max="7" width="55.8571428571429" customWidth="1"/>
+    <col min="8" max="8" width="14.7142857142857" customWidth="1"/>
+    <col min="9" max="9" width="12.1428571428571" customWidth="1"/>
+    <col min="10" max="10" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:8">
+    <row r="1" s="1" customFormat="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>38</v>
       </c>
-      <c r="B2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>59</v>
+      <c r="B2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="H2">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="J2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>38</v>
       </c>
-      <c r="B3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>59</v>
+      <c r="B3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>74</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H3">
+        <v>51</v>
+      </c>
+      <c r="F3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>38</v>
       </c>
-      <c r="B4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="B4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" t="s">
         <v>76</v>
       </c>
-      <c r="H4">
+      <c r="F4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" t="s">
+        <v>78</v>
+      </c>
+      <c r="J4">
         <v>1</v>
       </c>
     </row>
@@ -1953,15 +2025,15 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -1969,21 +2041,21 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/EFM_shiny.xlsx
+++ b/EFM_shiny.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="88">
   <si>
     <t>name</t>
   </si>
@@ -267,7 +267,10 @@
     <t>text = "Current Book", colour = "blue"</t>
   </si>
   <si>
-    <t>geom_bar(aes(x = current_storybook_accessed)) + labs(x = "Storybook", y = "Count", title = "Current storybooks accessed") + theme(axis.text.x = element_text(angle = 45, vjust = 0.5, hjust = 1)) + theme_minimal ()</t>
+    <t>labs(x = "Storybook", y = "Count", title = "Current storybooks accessed") + theme(axis.text.x = element_text(angle = 45, vjust = 0.5, hjust = 1)) + theme_minimal ()</t>
+  </si>
+  <si>
+    <t>current_storybook_accessed</t>
   </si>
   <si>
     <t>text = "Accessed  Storybooks", colour = "blue"</t>
@@ -1522,7 +1525,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1876,8 +1879,8 @@
   <sheetPr/>
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
@@ -1955,16 +1958,16 @@
         <v>38</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
         <v>74</v>
       </c>
-      <c r="D3" t="s">
-        <v>51</v>
-      </c>
       <c r="F3" t="s">
         <v>75</v>
+      </c>
+      <c r="G3" t="s">
+        <v>76</v>
       </c>
       <c r="J3">
         <v>3</v>
@@ -1978,13 +1981,13 @@
         <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -2025,15 +2028,15 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -2041,21 +2044,21 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/EFM_shiny.xlsx
+++ b/EFM_shiny.xlsx
@@ -267,7 +267,7 @@
     <t>text = "Current Book", colour = "blue"</t>
   </si>
   <si>
-    <t>labs(x = "Storybook", y = "Count", title = "Current storybooks accessed") + theme(axis.text.x = element_text(angle = 45, vjust = 0.5, hjust = 1)) + theme_minimal ()</t>
+    <t>geom_bar(aes(x = current_storybook_accessed)) + labs(x = "Storybook", y = "Count", title = "Current storybooks accessed") + theme(axis.text.x = element_text(angle = 30))</t>
   </si>
   <si>
     <t>current_storybook_accessed</t>
@@ -1524,8 +1524,8 @@
   <sheetPr/>
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1879,17 +1879,17 @@
   <sheetPr/>
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="5.57142857142857" customWidth="1"/>
     <col min="2" max="2" width="19.2761904761905" customWidth="1"/>
-    <col min="3" max="3" width="54.5714285714286" customWidth="1"/>
-    <col min="4" max="4" width="30.8857142857143" customWidth="1"/>
-    <col min="5" max="5" width="28.2095238095238" customWidth="1"/>
+    <col min="3" max="3" width="67.4285714285714" customWidth="1"/>
+    <col min="4" max="4" width="71.4285714285714" customWidth="1"/>
+    <col min="5" max="5" width="71" customWidth="1"/>
     <col min="6" max="6" width="209.428571428571" customWidth="1"/>
     <col min="7" max="7" width="55.8571428571429" customWidth="1"/>
     <col min="8" max="8" width="14.7142857142857" customWidth="1"/>
@@ -1958,7 +1958,7 @@
         <v>38</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
         <v>74</v>

--- a/EFM_shiny.xlsx
+++ b/EFM_shiny.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fundi\Documents\GitHub\EFMDataScripts\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7620" tabRatio="971" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="971" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="contents" sheetId="2" r:id="rId1"/>
@@ -14,7 +19,7 @@
     <sheet name="storybooks" sheetId="17" r:id="rId5"/>
     <sheet name="download" sheetId="20" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="90">
   <si>
     <t>name</t>
   </si>
@@ -214,13 +219,7 @@
     <t>text = "Number of Actions per Visit", colour = "blue"</t>
   </si>
   <si>
-    <t>geom_density(aes(x = actions_per_visit), fill = "dodgerblue", color = "dodgerblue", alpha = 0.5) + labs(x = "Actions", y = "Density", title = "Actions Per Visit") + theme(legend.position = "none") + theme_minimal ()</t>
-  </si>
-  <si>
     <t>text = "Average Time on App", colour = "blue"</t>
-  </si>
-  <si>
-    <t>geom_density(aes(x = avg_time_on_app), fill = "dodgerblue", color = "dodgerblue", alpha = 0.5) + labs(x = "Time", y = "Density", title = "Average time on App") + theme(legend.position = "none") + theme_minimal ()</t>
   </si>
   <si>
     <r>
@@ -305,18 +304,24 @@
   <si>
     <t>plhdata_org</t>
   </si>
+  <si>
+    <t>%&gt;% filter(!is.na(actions_per_visit)) %&gt;% group_by(actions_per_visit) %&gt;% summarise(frequency = n())</t>
+  </si>
+  <si>
+    <t>geom_line(aes(x = actions_per_visit, y = frequency)) + geom_point(aes(x = actions_per_visit, y = frequency)) + labs(x = "Number of Actions", y = "Number of users", title = "Frequency of Values by Month") + theme_minimal ()</t>
+  </si>
+  <si>
+    <t>%&gt;% filter(!is.na(avg_time_on_app)) %&gt;% group_by(avg_time_on_app) %&gt;% summarise(frequency = n())</t>
+  </si>
+  <si>
+    <t>geom_line(aes(x = avg_time_on_app, y = frequency)) + geom_point(aes(x = avg_time_on_app, y = frequency)) + labs(x = "Average Time on App(seconds)", y = "Number of users", title = "Frequency of Values by Month") + theme_minimal ()</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,346 +361,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -703,251 +378,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -959,61 +392,17 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1300,24 +689,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.8190476190476" customWidth="1"/>
-    <col min="2" max="2" width="16.1809523809524" customWidth="1"/>
-    <col min="3" max="3" width="16.2666666666667" customWidth="1"/>
-    <col min="4" max="4" width="20.4571428571429" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1392,26 +781,24 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.8190476190476" customWidth="1"/>
-    <col min="2" max="2" width="13.8190476190476" customWidth="1"/>
-    <col min="3" max="3" width="78.1809523809524" customWidth="1"/>
-    <col min="4" max="4" width="36.2666666666667" customWidth="1"/>
-    <col min="5" max="5" width="15.1809523809524" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="78.140625" customWidth="1"/>
+    <col min="4" max="4" width="36.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1431,7 +818,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -1515,34 +902,32 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="F4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.57142857142857" customWidth="1"/>
-    <col min="2" max="2" width="12.8571428571429" customWidth="1"/>
-    <col min="3" max="3" width="53.5714285714286" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="53.5703125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="101.285714285714" customWidth="1"/>
-    <col min="6" max="6" width="177.714285714286" customWidth="1"/>
-    <col min="7" max="7" width="51.4285714285714" customWidth="1"/>
-    <col min="8" max="8" width="14.7142857142857" customWidth="1"/>
-    <col min="9" max="9" width="12.1428571428571" customWidth="1"/>
+    <col min="5" max="5" width="101.28515625" customWidth="1"/>
+    <col min="6" max="6" width="177.7109375" customWidth="1"/>
+    <col min="7" max="7" width="51.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
     <col min="10" max="10" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:10">
+    <row r="1" spans="1:10" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1614,7 +999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="21" customHeight="1" spans="1:10">
+    <row r="4" spans="1:10" ht="21" customHeight="1">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -1677,7 +1062,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" ht="21" customHeight="1" spans="1:10">
+    <row r="7" spans="1:10" ht="21" customHeight="1">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -1713,8 +1098,11 @@
       <c r="D8" t="s">
         <v>51</v>
       </c>
+      <c r="E8" t="s">
+        <v>86</v>
+      </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="J8">
         <v>5</v>
@@ -1728,13 +1116,16 @@
         <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
         <v>51</v>
       </c>
+      <c r="E9" t="s">
+        <v>88</v>
+      </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="J9">
         <v>5</v>
@@ -1742,34 +1133,32 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.5428571428571" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="53.5428571428571" customWidth="1"/>
-    <col min="4" max="4" width="15.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="30.4285714285714" customWidth="1"/>
-    <col min="6" max="6" width="49.4285714285714" customWidth="1"/>
-    <col min="7" max="7" width="51.1809523809524" customWidth="1"/>
-    <col min="8" max="8" width="12.9047619047619" customWidth="1"/>
-    <col min="9" max="9" width="15.1809523809524" customWidth="1"/>
+    <col min="3" max="3" width="53.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="30.42578125" customWidth="1"/>
+    <col min="6" max="6" width="49.42578125" customWidth="1"/>
+    <col min="7" max="7" width="51.140625" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" customWidth="1"/>
     <col min="10" max="10" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:10">
+    <row r="1" spans="1:10" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1806,19 +1195,19 @@
         <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
         <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H2" s="3"/>
       <c r="J2">
@@ -1830,19 +1219,19 @@
         <v>38</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
         <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -1853,16 +1242,16 @@
         <v>38</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" t="s">
         <v>70</v>
-      </c>
-      <c r="F4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G4" t="s">
-        <v>72</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -1870,34 +1259,32 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.57142857142857" customWidth="1"/>
-    <col min="2" max="2" width="19.2761904761905" customWidth="1"/>
-    <col min="3" max="3" width="67.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="71.4285714285714" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="67.42578125" customWidth="1"/>
+    <col min="4" max="4" width="71.42578125" customWidth="1"/>
     <col min="5" max="5" width="71" customWidth="1"/>
-    <col min="6" max="6" width="209.428571428571" customWidth="1"/>
-    <col min="7" max="7" width="55.8571428571429" customWidth="1"/>
-    <col min="8" max="8" width="14.7142857142857" customWidth="1"/>
-    <col min="9" max="9" width="12.1428571428571" customWidth="1"/>
+    <col min="6" max="6" width="209.42578125" customWidth="1"/>
+    <col min="7" max="7" width="55.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
     <col min="10" max="10" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:10">
+    <row r="1" spans="1:10" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1934,19 +1321,19 @@
         <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
         <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H2" s="3"/>
       <c r="J2">
@@ -1961,13 +1348,13 @@
         <v>46</v>
       </c>
       <c r="C3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" t="s">
         <v>74</v>
-      </c>
-      <c r="F3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G3" t="s">
-        <v>76</v>
       </c>
       <c r="J3">
         <v>3</v>
@@ -1978,16 +1365,16 @@
         <v>38</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" t="s">
         <v>77</v>
-      </c>
-      <c r="F4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G4" t="s">
-        <v>79</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -1995,24 +1382,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.1809523809524" customWidth="1"/>
-    <col min="2" max="2" width="19.4571428571429" customWidth="1"/>
-    <col min="3" max="3" width="12.8190476190476" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2026,17 +1411,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>80</v>
-      </c>
-      <c r="B2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>82</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -2044,25 +1429,24 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" t="s">
         <v>85</v>
-      </c>
-      <c r="B5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/EFM_shiny.xlsx
+++ b/EFM_shiny.xlsx
@@ -1525,7 +1525,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1880,7 +1880,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
